--- a/ig/291-erreur-organization-lieu-dit-precinct/StructureDefinition-ror-organization.xlsx
+++ b/ig/291-erreur-organization-lieu-dit-precinct/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:07:25+00:00</t>
+    <t>2024-02-05T13:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2486,20 +2486,20 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
-    <t>Organization.address.line.extension:precinct</t>
-  </si>
-  <si>
-    <t>precinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-precinct}
+    <t>Organization.address.line.extension:lieuDit</t>
+  </si>
+  <si>
+    <t>lieuDit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-lieu-dit}
 </t>
   </si>
   <si>
     <t>lieuDit (Adresse)</t>
   </si>
   <si>
-    <t>A subsection of a municipality.</t>
+    <t>Extension créée dans le cadre du ROR pour indiquer le lieu dit</t>
   </si>
   <si>
     <t>Organization.address.line.value</t>
@@ -24986,7 +24986,7 @@
         <v>73</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>72</v>
@@ -25088,7 +25088,7 @@
         <v>73</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>72</v>
